--- a/Stocks/BHARATFORG.xlsx
+++ b/Stocks/BHARATFORG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1154.1666666666667</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1154.6906995709517</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1136.4684184545699</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>72.938659915054188</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>9.7999999999999545</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>19.650000000000091</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.4987277353689521</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1135.7843978545991</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>6.655302278357567</v>
       </c>
       <c r="Y67">
         <v>3.2492615957089521</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1160.0999999999999</v>
+      </c>
+      <c r="D83">
+        <v>1167.45</v>
+      </c>
+      <c r="E83">
+        <v>1147.95</v>
+      </c>
+      <c r="F83">
+        <v>1164</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1159.8</v>
+      </c>
+      <c r="H83">
+        <v>1157.7270910751276</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1175.2245073794854</v>
+      </c>
+      <c r="K83">
+        <v>1144.0542695539286</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>52.785965255424763</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>16.049999999999955</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>19.5</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.82307692307692071</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1160.2516321082114</v>
+      </c>
+      <c r="W83">
+        <v>1155.2613025455169</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>4.9903295626945692</v>
+      </c>
+      <c r="Y83">
+        <v>7.3899012476282753</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1158.95</v>
+      </c>
+      <c r="D84">
+        <v>1159.95</v>
+      </c>
+      <c r="E84">
+        <v>1122.7</v>
+      </c>
+      <c r="F84">
+        <v>1129.5999999999999</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1137.4166666666667</v>
+      </c>
+      <c r="H84">
+        <v>1147.5718788708973</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1171.8301724062665</v>
+      </c>
+      <c r="K84">
+        <v>1139.3088763197222</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>34.999370435281676</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>6.8999999999998636</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>37.25</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.1852348993288554</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>1155.5359963992557</v>
+      </c>
+      <c r="W84">
+        <v>1153.3604653199229</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>2.1755310793328135</v>
+      </c>
+      <c r="Y84">
+        <v>6.3470272139691826</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1135</v>
+      </c>
+      <c r="D85">
+        <v>1149.5999999999999</v>
+      </c>
+      <c r="E85">
+        <v>1135</v>
+      </c>
+      <c r="F85">
+        <v>1142</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1142.2</v>
+      </c>
+      <c r="H85">
+        <v>1144.8859394354486</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>1166.8901340937628</v>
+      </c>
+      <c r="K85">
+        <v>1138.3513482486728</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>43.567343535484596</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>14.599999999999909</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.47945205479452352</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1153.4535354147549</v>
+      </c>
+      <c r="W85">
+        <v>1152.518949370299</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>0.93458604445595483</v>
+      </c>
+      <c r="Y85">
+        <v>5.2645389800665372</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1148</v>
+      </c>
+      <c r="D86">
+        <v>1148</v>
+      </c>
+      <c r="E86">
+        <v>1122.5999999999999</v>
+      </c>
+      <c r="F86">
+        <v>1129.9000000000001</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1133.5</v>
+      </c>
+      <c r="H86">
+        <v>1139.1929697177243</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>1162.6923265173709</v>
+      </c>
+      <c r="K86">
+        <v>1134.8510486378566</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N86">
+        <v>37.532790791622759</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>7.3000000000001819</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>25.400000000000091</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.28740157480315576</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1149.8299145817157</v>
+      </c>
+      <c r="W86">
+        <v>1150.8434716391657</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-1.0135570574500434</v>
+      </c>
+      <c r="Y86">
+        <v>4.0089197725632211</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1131.05</v>
+      </c>
+      <c r="D87">
+        <v>1145.25</v>
+      </c>
+      <c r="E87">
+        <v>1128.6500000000001</v>
+      </c>
+      <c r="F87">
+        <v>1131</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1134.9666666666667</v>
+      </c>
+      <c r="H87">
+        <v>1137.0798181921955</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>1158.8162539579553</v>
+      </c>
+      <c r="K87">
+        <v>1133.4730378294441</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N87">
+        <v>38.500780937408187</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>2.3499999999999091</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>16.599999999999909</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.14156626506023626</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V87">
+        <v>1146.933004646067</v>
+      </c>
+      <c r="W87">
+        <v>1149.3735848510794</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-2.4405802050123384</v>
+      </c>
+      <c r="Y87">
+        <v>2.7190197770481088</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1135</v>
+      </c>
+      <c r="D88">
+        <v>1143.25</v>
+      </c>
+      <c r="E88">
+        <v>1121</v>
+      </c>
+      <c r="F88">
+        <v>1124</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1129.4166666666667</v>
+      </c>
+      <c r="H88">
+        <v>1133.2482424294312</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1155.357086411743</v>
+      </c>
+      <c r="K88">
+        <v>1130.7012516451232</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>34.275825579703316</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>22.25</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.1348314606741573</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V88">
+        <v>1143.4048500851336</v>
+      </c>
+      <c r="W88">
+        <v>1147.4940600472958</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-4.0892099621621583</v>
+      </c>
+      <c r="Y88">
+        <v>1.3573738292060553</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1126.1500000000001</v>
+      </c>
+      <c r="D89">
+        <v>1141.5</v>
+      </c>
+      <c r="E89">
+        <v>1126</v>
+      </c>
+      <c r="F89">
+        <v>1126</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1131.1666666666667</v>
+      </c>
+      <c r="H89">
+        <v>1132.2074545480491</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>1152.2777338758001</v>
+      </c>
+      <c r="K89">
+        <v>1129.656529057318</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N89">
+        <v>36.754525811931579</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>15.5</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V89">
+        <v>1140.727180841267</v>
+      </c>
+      <c r="W89">
+        <v>1145.9019074511998</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-5.1747266099328044</v>
+      </c>
+      <c r="Y89">
+        <v>5.0953741378283235E-2</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1132.3</v>
+      </c>
+      <c r="D90">
+        <v>1138.75</v>
+      </c>
+      <c r="E90">
+        <v>1120.5999999999999</v>
+      </c>
+      <c r="F90">
+        <v>1129.75</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1129.7</v>
+      </c>
+      <c r="H90">
+        <v>1130.9537272740245</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>1149.2715707922889</v>
+      </c>
+      <c r="K90">
+        <v>1127.6439670445807</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>41.890874434252538</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>9.1500000000000909</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>18.150000000000091</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.50413223140496122</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1139.0383837887643</v>
+      </c>
+      <c r="W90">
+        <v>1144.7054698622221</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-5.6670860734577673</v>
+      </c>
+      <c r="Y90">
+        <v>-1.0926542215889268</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1172</v>
+      </c>
+      <c r="D91">
+        <v>1179.95</v>
+      </c>
+      <c r="E91">
+        <v>1148.05</v>
+      </c>
+      <c r="F91">
+        <v>1160.5999999999999</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1162.8666666666666</v>
+      </c>
+      <c r="H91">
+        <v>1146.9101969703456</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1156.0889995051136</v>
+      </c>
+      <c r="K91">
+        <v>1132.1786410346738</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>68.335306434693706</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>12.549999999999955</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>31.900000000000091</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.39341692789968397</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1142.3555555135699</v>
+      </c>
+      <c r="W91">
+        <v>1145.8828424650205</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-3.5272869514506056</v>
+      </c>
+      <c r="Y91">
+        <v>-1.5795807675612625</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1170</v>
+      </c>
+      <c r="D92">
+        <v>1176</v>
+      </c>
+      <c r="E92">
+        <v>1153.75</v>
+      </c>
+      <c r="F92">
+        <v>1158.05</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1162.6000000000001</v>
+      </c>
+      <c r="H92">
+        <v>1154.7550984851728</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1160.5136662817551</v>
+      </c>
+      <c r="K92">
+        <v>1136.9722763603017</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>65.266461154974891</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>4.2999999999999545</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>22.25</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.19325842696629009</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1144.7700854345592</v>
+      </c>
+      <c r="W92">
+        <v>1146.7841133935376</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-2.0140279589784313</v>
+      </c>
+      <c r="Y92">
+        <v>-1.6664702058446963</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1175</v>
+      </c>
+      <c r="D93">
+        <v>1189</v>
+      </c>
+      <c r="E93">
+        <v>1166</v>
+      </c>
+      <c r="F93">
+        <v>1181</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1178.6666666666667</v>
+      </c>
+      <c r="H93">
+        <v>1166.7108825759196</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1166.8439626635873</v>
+      </c>
+      <c r="K93">
+        <v>1143.4228816135681</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>76.924642521005396</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1150.343918444627</v>
+      </c>
+      <c r="W93">
+        <v>1149.3186235125347</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>1.0252949320922653</v>
+      </c>
+      <c r="Y93">
+        <v>-1.1281171782573041</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1188</v>
+      </c>
+      <c r="D94">
+        <v>1234</v>
+      </c>
+      <c r="E94">
+        <v>1185.25</v>
+      </c>
+      <c r="F94">
+        <v>1229</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1216.0833333333333</v>
+      </c>
+      <c r="H94">
+        <v>1191.3971079546263</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1181.7675265161233</v>
+      </c>
+      <c r="K94">
+        <v>1152.717796810553</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>87.709572413443055</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>43.75</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>48.75</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.89743589743589747</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>1162.4448540685305</v>
+      </c>
+      <c r="W94">
+        <v>1155.2209476967914</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>7.2239063717390763</v>
+      </c>
+      <c r="Y94">
+        <v>0.54228753174197197</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>1190.8</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>1203.8500000000001</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>1209.6500000000001</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>1215.4000000000001</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1235.0999999999999</v>
+      </c>
+      <c r="D95">
+        <v>1247.45</v>
+      </c>
+      <c r="E95">
+        <v>1220.8</v>
+      </c>
+      <c r="F95">
+        <v>1228.95</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1232.3999999999999</v>
+      </c>
+      <c r="H95">
+        <v>1211.898553977313</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1196.3636317347625</v>
+      </c>
+      <c r="K95">
+        <v>1167.8471752970968</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>87.656227815540333</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>8.1500000000000909</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>26.650000000000091</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.30581613508443012</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1172.6764149810642</v>
+      </c>
+      <c r="W95">
+        <v>1160.6823589785106</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>11.994056002553634</v>
+      </c>
+      <c r="Y95">
+        <v>2.8326412259043048</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1230</v>
+      </c>
+      <c r="D96">
+        <v>1265.8</v>
+      </c>
+      <c r="E96">
+        <v>1230</v>
+      </c>
+      <c r="F96">
+        <v>1256</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1250.6000000000001</v>
+      </c>
+      <c r="H96">
+        <v>1231.2492769886567</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>1211.7939357937041</v>
+      </c>
+      <c r="K96">
+        <v>1181.6589141199643</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>91.253568851901917</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>26</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>35.799999999999955</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.72625698324022436</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1185.4954280609004</v>
+      </c>
+      <c r="W96">
+        <v>1167.7429249801023</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>17.752503080798078</v>
+      </c>
+      <c r="Y96">
+        <v>5.8166135968830597</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1255.95</v>
+      </c>
+      <c r="D97">
+        <v>1255.95</v>
+      </c>
+      <c r="E97">
+        <v>1235</v>
+      </c>
+      <c r="F97">
+        <v>1240</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1243.6499999999999</v>
+      </c>
+      <c r="H97">
+        <v>1237.4496384943282</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>1221.6063945062144</v>
+      </c>
+      <c r="K97">
+        <v>1193.5124887599723</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>75.076480865502049</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>20.950000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.238663484486873</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1193.8807468207619</v>
+      </c>
+      <c r="W97">
+        <v>1173.0953009075022</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>20.785445913259764</v>
+      </c>
+      <c r="Y97">
+        <v>8.8103800601584012</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1254.95</v>
+      </c>
+      <c r="D98">
+        <v>1258.9000000000001</v>
+      </c>
+      <c r="E98">
+        <v>1244</v>
+      </c>
+      <c r="F98">
+        <v>1246</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1249.6333333333334</v>
+      </c>
+      <c r="H98">
+        <v>1243.5414859138309</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1229.8938623937224</v>
+      </c>
+      <c r="K98">
+        <v>1204.7319357022006</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>76.988680750208545</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>14.900000000000091</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.13422818791946226</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1201.8990934637216</v>
+      </c>
+      <c r="W98">
+        <v>1178.495648988428</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>23.403444475293554</v>
+      </c>
+      <c r="Y98">
+        <v>11.728992943185432</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1258</v>
+      </c>
+      <c r="D99">
+        <v>1272.75</v>
+      </c>
+      <c r="E99">
+        <v>1247.3</v>
+      </c>
+      <c r="F99">
+        <v>1267.5</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1262.5166666666667</v>
+      </c>
+      <c r="H99">
+        <v>1253.0290762902487</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1239.4174485284507</v>
+      </c>
+      <c r="K99">
+        <v>1214.1915055461561</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>82.87407120624178</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>20.200000000000045</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>25.450000000000045</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.79371316306483342</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1211.9915406231489</v>
+      </c>
+      <c r="W99">
+        <v>1185.088563878174</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>26.902976744974922</v>
+      </c>
+      <c r="Y99">
+        <v>14.763789703543329</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1267.95</v>
+      </c>
+      <c r="D100">
+        <v>1276</v>
+      </c>
+      <c r="E100">
+        <v>1257.5</v>
+      </c>
+      <c r="F100">
+        <v>1270</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1267.8333333333333</v>
+      </c>
+      <c r="H100">
+        <v>1260.4312048117908</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>1247.5469044110173</v>
+      </c>
+      <c r="K100">
+        <v>1223.8156154247881</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>83.487900515363805</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>12.5</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>18.5</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.67567567567567566</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1220.9159189888182</v>
+      </c>
+      <c r="W100">
+        <v>1191.3782998871982</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>29.537619101620066</v>
+      </c>
+      <c r="Y100">
+        <v>17.718555583158675</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1274.9000000000001</v>
+      </c>
+      <c r="D101">
+        <v>1274.9000000000001</v>
+      </c>
+      <c r="E101">
+        <v>1236.95</v>
+      </c>
+      <c r="F101">
+        <v>1249.25</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1253.7</v>
+      </c>
+      <c r="H101">
+        <v>1257.0656024058953</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1253.625370097458</v>
+      </c>
+      <c r="K101">
+        <v>1226.7343675526131</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>60.857368566977364</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>12.299999999999955</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>37.950000000000045</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.3241106719367573</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1225.2750083751539</v>
+      </c>
+      <c r="W101">
+        <v>1195.6650924881465</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>29.609915887007446</v>
+      </c>
+      <c r="Y101">
+        <v>20.096827643928428</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1249</v>
+      </c>
+      <c r="D102">
+        <v>1249</v>
+      </c>
+      <c r="E102">
+        <v>1223</v>
+      </c>
+      <c r="F102">
+        <v>1232</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1234.6666666666667</v>
+      </c>
+      <c r="H102">
+        <v>1245.8661345362812</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1252.5975100758008</v>
+      </c>
+      <c r="K102">
+        <v>1225.9045080964768</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>47.482589195399761</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>26</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1226.309622471284</v>
+      </c>
+      <c r="W102">
+        <v>1198.3565671186541</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>27.953055352629917</v>
+      </c>
+      <c r="Y102">
+        <v>21.668073185668725</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1232</v>
+      </c>
+      <c r="D103">
+        <v>1235.7</v>
+      </c>
+      <c r="E103">
+        <v>1174.5</v>
+      </c>
+      <c r="F103">
+        <v>1218.8</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1209.6666666666667</v>
+      </c>
+      <c r="H103">
+        <v>1227.7664006014738</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1248.8425078367338</v>
+      </c>
+      <c r="K103">
+        <v>1214.4812840750376</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>39.234765594434748</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>44.299999999999955</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>61.200000000000045</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.72385620915032556</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1225.1542959372402</v>
+      </c>
+      <c r="W103">
+        <v>1199.8708954802353</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>25.283400457004973</v>
+      </c>
+      <c r="Y103">
+        <v>22.391138639935974</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1223</v>
+      </c>
+      <c r="D104">
+        <v>1280</v>
+      </c>
+      <c r="E104">
+        <v>1219</v>
+      </c>
+      <c r="F104">
+        <v>1274</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1257.6666666666667</v>
+      </c>
+      <c r="H104">
+        <v>1242.7165336340704</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>1255.7663949841262</v>
+      </c>
+      <c r="K104">
+        <v>1215.4854431694737</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N104">
+        <v>68.152193331472816</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>55</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>61</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.90163934426229508</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V104">
+        <v>1232.6690196392033</v>
+      </c>
+      <c r="W104">
+        <v>1205.361940259477</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>27.307079379726247</v>
+      </c>
+      <c r="Y104">
+        <v>23.374326787894027</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1290</v>
+      </c>
+      <c r="D105">
+        <v>1290.05</v>
+      </c>
+      <c r="E105">
+        <v>1198.5</v>
+      </c>
+      <c r="F105">
+        <v>1216.95</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1235.1666666666667</v>
+      </c>
+      <c r="H105">
+        <v>1238.9416001503687</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1263.3849738765425</v>
+      </c>
+      <c r="K105">
+        <v>1211.710900242924</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>42.204830458912227</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>18.450000000000045</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>91.549999999999955</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.20152921900600823</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>1230.2507089254798</v>
+      </c>
+      <c r="W105">
+        <v>1206.2203150550713</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>24.030393870408489</v>
+      </c>
+      <c r="Y105">
+        <v>23.505540204396919</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>612</v>
+      </c>
+      <c r="D106">
+        <v>614</v>
+      </c>
+      <c r="E106">
+        <v>593.20000000000005</v>
+      </c>
+      <c r="F106">
+        <v>593.6</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>600.26666666666677</v>
+      </c>
+      <c r="H106">
+        <v>919.60413340851778</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>1119.0772019039775</v>
+      </c>
+      <c r="K106">
+        <v>1074.2640335222743</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>6.8072784047674393</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>20.799999999999955</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>1.9230769230768181E-2</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>1132.3044460138676</v>
+      </c>
+      <c r="W106">
+        <v>1160.8410324583992</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-28.536586444531622</v>
+      </c>
+      <c r="Y106">
+        <v>13.09711487461121</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>611.65</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>606.05000000000007</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>603.6</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>601.15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>602.6</v>
+      </c>
+      <c r="D107">
+        <v>606</v>
+      </c>
+      <c r="E107">
+        <v>586</v>
+      </c>
+      <c r="F107">
+        <v>591.79999999999995</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>594.6</v>
+      </c>
+      <c r="H107">
+        <v>757.10206670425896</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>1005.0600459253159</v>
+      </c>
+      <c r="K107">
+        <v>965.76091496176889</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>6.7867326375188108</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>5.7999999999999545</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>20</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.2899999999999977</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1049.1499158578879</v>
+      </c>
+      <c r="W107">
+        <v>1118.6898448688883</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-69.539929011000368</v>
+      </c>
+      <c r="Y107">
+        <v>-3.4302939025111048</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
